--- a/Supplemental Files/Table S1.xlsx
+++ b/Supplemental Files/Table S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Šimon Pavlů\Desktop\2. Differencial analysis of barley promoterome\Supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFA9878-4FDA-4FEA-8B46-FAD0BA83BC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CF8238-640E-470F-9213-7C8B5D26E1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Dataset</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>4DAGxINF</t>
+  </si>
+  <si>
+    <t>TableS1 - Number of differential genes between each sample.</t>
   </si>
 </sst>
 </file>
@@ -394,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF5395E5-B4A4-4778-97E4-C989B5A4B1EA}" name="Tabulka1" displayName="Tabulka1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G3" xr:uid="{FF5395E5-B4A4-4778-97E4-C989B5A4B1EA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF5395E5-B4A4-4778-97E4-C989B5A4B1EA}" name="Tabulka1" displayName="Tabulka1" ref="A2:G4" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A2:G4" xr:uid="{FF5395E5-B4A4-4778-97E4-C989B5A4B1EA}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{55A74C76-9995-40D1-897A-03119A8BB5C3}" name="Dataset" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{74E46096-9FB1-4FDA-A932-8755E97A6785}" name="4DAGx24DAP" dataDxfId="5"/>
@@ -672,11 +675,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -690,71 +691,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
+      <c r="A1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>7902</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9010</v>
-      </c>
-      <c r="D2" s="5">
-        <v>5560</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6707</v>
-      </c>
-      <c r="F2" s="2">
-        <v>6414</v>
-      </c>
-      <c r="G2" s="2">
-        <v>9091</v>
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7902</v>
+      </c>
+      <c r="C3" s="5">
+        <v>9010</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5560</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6707</v>
+      </c>
+      <c r="F3" s="2">
+        <v>6414</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B4" s="5">
         <v>3848</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>5967</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>6370</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E4" s="6">
         <v>5650</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F4" s="6">
         <v>6188</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G4" s="6">
         <v>5709</v>
       </c>
     </row>
